--- a/biology/Médecine/Muscle_sterno-hyoïdien/Muscle_sterno-hyoïdien.xlsx
+++ b/biology/Médecine/Muscle_sterno-hyoïdien/Muscle_sterno-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sterno-hyo%C3%AFdien</t>
+          <t>Muscle_sterno-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle sterno-hyoïdien (ou sterno-cléido-hyoïdien) (musculus sternohyoideus en latin) est un muscle pair de la face antérieure du cou, tendu entre le sternum et l'os hyoïde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_sterno-hyo%C3%AFdien</t>
+          <t>Muscle_sterno-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insertions crâniales : il s'insère sur le bord inférieur de l'os hyoïde, près de sa partie médiane.
 Trajet : il descend en s'élargissant légèrement en avant et en dehors.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_sterno-hyo%C3%AFdien</t>
+          <t>Muscle_sterno-hyoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par un rameau de l'anse cervicale.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_sterno-hyo%C3%AFdien</t>
+          <t>Muscle_sterno-hyoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère thyroïdienne inférieure.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_sterno-hyo%C3%AFdien</t>
+          <t>Muscle_sterno-hyoïdien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il attire l'os hyoïde vers le bas.
 Inspirateur accessoire.
